--- a/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>País Vasco</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>País Vasco</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,15</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>1,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>140,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>196,83%</t>
+          <t>156,77%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>212,64%</t>
+          <t>150,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,91; 1,96</t>
+          <t>-0,19; 1,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>1,07; 5,55</t>
+          <t>0,13; 4,75</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,0; 1,55</t>
+          <t>-0,02; 2,9</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-61,89; 395,92</t>
+          <t>-58,97; 1207,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>38,98; 596,66</t>
+          <t>-7,07; 658,58</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-55,19; 1870,16</t>
+          <t>-26,86; 885,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,05</t>
+          <t>-0,42</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,06</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>0,18</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>-43,36%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-4,05%</t>
+          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,11</t>
+          <t>-1,77; 0,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 1,65</t>
+          <t>-1,64; 2,37</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 0,9</t>
+          <t>-1,8; 2,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-66,42; 306,14</t>
+          <t>-93,05; 230,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-64,69; 178,78</t>
+          <t>-71,46; 323,37</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-84,2; 308,11</t>
+          <t>-70,38; 367,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,11</t>
+          <t>0,45</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,6</t>
+          <t>3,16</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>75,65%</t>
+          <t>73,17%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>13,99%</t>
+          <t>159,8%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>29,79%</t>
+          <t>67,07%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,29; 7,08</t>
+          <t>-0,58; 2,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,28</t>
+          <t>-0,61; 9,18</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 1,45</t>
+          <t>-1,54; 8,32</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-47,46; 382,84</t>
+          <t>-100,0; 1103,84</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-47,47; 142,26</t>
+          <t>-22,72; 1295,42</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-82,52; 494,6</t>
+          <t>-51,55; 486,53</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,14</t>
+          <t>1,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>56,92%</t>
+          <t>36,51%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>15,4%</t>
+          <t>-23,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>13,48%</t>
+          <t>71,79%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,71; 3,31</t>
+          <t>-0,79; 1,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,1; 1,59</t>
+          <t>-2,97; 1,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,73; 1,17</t>
+          <t>-0,59; 3,35</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,05; 286,64</t>
+          <t>-59,02; 422,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-40,29; 114,69</t>
+          <t>-77,34; 68,23</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-53,86; 178,25</t>
+          <t>-28,05; 316,86</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,53</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,31</t>
+          <t>0,76</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>35,04%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>128,67%</t>
+          <t>164,37%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>28,69%</t>
+          <t>43,02%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,78; 3,41</t>
+          <t>-1,7; 1,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,91; 5,94</t>
+          <t>-0,36; 8,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-1,08; 1,47</t>
+          <t>-1,74; 3,34</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-66,34; 296,59</t>
+          <t>-72,14; 288,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>22,51; 475,54</t>
+          <t>-24,52; 639,83</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-60,58; 373,67</t>
+          <t>-69,08; 403,03</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>-0,84</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>-0,04</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>0,0</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,69</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>-57,35%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>-1,1%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-20,59%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-45,98%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-3,27; 0,54</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-7,69; 3,47</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-6,57; 1,85</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 0,31</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>-95,86; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>-74,63; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-73,03; 189,64</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-91,78; 109,76</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
+          <t>1,25</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,88</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,2</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>36,0%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>37,82%</t>
+          <t>61,09%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>25,78%</t>
+          <t>50,92%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,3; 1,59</t>
+          <t>-0,31; 0,63</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,02; 1,82</t>
+          <t>-0,22; 2,46</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,18; 0,59</t>
+          <t>-0,13; 1,9</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-12,86; 105,88</t>
+          <t>-29,76; 100,48</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,29; 92,84</t>
+          <t>-8,59; 162,23</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-19,51; 102,39</t>
+          <t>-9,23; 133,59</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>0,56</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>140,46%</t>
+          <t>242,07%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,35</t>
+          <t>-0,02; 1,27</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,13; 4,75</t>
+          <t>0,1; 4,92</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-58,97; 1207,12</t>
+          <t>-59,96; 1496,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-7,07; 658,58</t>
+          <t>-11,13; 690,41</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-0,42</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-43,36%</t>
+          <t>-8,29%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,77; 0,46</t>
+          <t>-1,58; 0,96</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 2,37</t>
+          <t>-1,74; 2,45</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-93,05; 230,0</t>
+          <t>-90,32; 373,46</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-71,46; 323,37</t>
+          <t>-75,9; 333,97</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>0,44</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>73,17%</t>
+          <t>56,52%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-0,58; 2,19</t>
+          <t>-0,63; 3,04</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-0,61; 9,18</t>
+          <t>-0,51; 9,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 1103,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 1295,42</t>
+          <t>-24,19; 1397,34</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,34</t>
+          <t>0,35</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>36,51%</t>
+          <t>43,87%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,65</t>
+          <t>-0,57; 1,26</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 1,21</t>
+          <t>-2,77; 1,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-59,02; 422,96</t>
+          <t>-49,5; 300,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-77,34; 68,23</t>
+          <t>-74,81; 67,26</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>0,52</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,05%</t>
+          <t>37,92%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,7; 1,49</t>
+          <t>-1,19; 2,03</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,36; 8,09</t>
+          <t>-0,23; 7,69</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-72,14; 288,37</t>
+          <t>-58,82; 324,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-24,52; 639,83</t>
+          <t>-15,59; 727,66</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-0,84</t>
+          <t>-0,26</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-57,35%</t>
+          <t>-24,67%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-3,27; 0,54</t>
+          <t>-1,9; 0,8</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-7,69; 3,47</t>
+          <t>-9,92; 3,24</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-95,86; —</t>
+          <t>-89,84; inf</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-74,63; —</t>
+          <t>-78,32; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>44,32%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 0,63</t>
+          <t>-0,08; 0,77</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,22; 2,46</t>
+          <t>-0,1; 2,47</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-29,76; 100,48</t>
+          <t>-11,35; 136,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-8,59; 162,23</t>
+          <t>-2,94; 166,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/CONS_ANT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>2,34</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,07</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>0,56</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>2,15</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,07</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>192,46%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>150,29%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>242,07%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>156,77%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>150,29%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>0,51; 5,19</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-0,02; 2,9</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,02; 1,27</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>0,1; 4,92</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-0,02; 2,9</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>5,37; 784,47</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-26,86; 885,89</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-59,96; 1496,75</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-11,13; 690,41</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-26,86; 885,89</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>0,18</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>-0,07</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>0,44</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>0,18</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>24,09%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10,48%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>-8,29%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>27,28%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>10,48%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-1,68; 2,26</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-1,8; 2,38</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-1,58; 0,96</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 2,45</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-1,8; 2,38</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-76,18; 327,77</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-70,38; 367,43</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-90,32; 373,46</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-75,9; 333,97</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-70,38; 367,43</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>1,28</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2,1</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,44</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>3,16</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>2,1</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>35,52%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>67,07%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>56,52%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>159,8%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>67,07%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-2,79; 5,5</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-1,54; 8,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-0,63; 3,04</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-0,51; 9,09</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-1,54; 8,32</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-60,98; 280,31</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-51,55; 486,53</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-24,19; 1397,34</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-51,55; 486,53</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>0,5</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>1,38</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>0,35</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>1,38</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>19,29%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>71,79%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>43,87%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-23,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>71,79%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-1,64; 2,53</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-0,59; 3,35</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>-0,57; 1,26</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,77; 1,18</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-0,59; 3,35</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-45,15; 151,09</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-28,05; 316,86</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>-49,5; 300,85</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-74,81; 67,26</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-28,05; 316,86</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>4,07</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,76</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>0,52</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>3,54</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>0,76</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>213,94%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>43,02%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>37,92%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>164,37%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>43,02%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>1,69; 6,74</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-1,74; 3,34</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>-1,19; 2,03</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,23; 7,69</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-1,74; 3,34</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>13,86; 803,0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-69,08; 403,03</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>-58,82; 324,82</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-15,59; 727,66</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-69,08; 403,03</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>-0,26</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,04</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,54%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>-24,67%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-1,1%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>-7,7; 3,76</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-1,9; 0,8</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-9,92; 3,24</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>-73,34; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="F15" s="2" t="inlineStr">
+      <c r="H15" s="2" t="inlineStr">
         <is>
           <t>-89,84; inf</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-78,32; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>1,54</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>0,88</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>1,25</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>0,88</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>68,66%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>50,92%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>44,32%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>61,09%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>50,92%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>0,51; 2,67</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-0,13; 1,9</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>-0,08; 0,77</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-0,1; 2,47</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 1,9</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>14,92; 156,53</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-9,23; 133,59</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>-11,35; 136,77</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-2,94; 166,78</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-9,23; 133,59</t>
         </is>
       </c>
     </row>
